--- a/student_scores.xlsx
+++ b/student_scores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,6 +436,101 @@
           <t>studentScores</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Carlos Ragudo</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>80</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Andrian Marino</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>81</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Terence Tarrega</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>82</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Joshua Agawin</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>90</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>James Orte</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>74</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>81.40000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/student_scores.xlsx
+++ b/student_scores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,96 +442,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Carlos Ragudo</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>80</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Andrian Marino</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>81</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Terence Tarrega</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>82</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Joshua Agawin</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>90</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>James Orte</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>74</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>81.40000000000001</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
